--- a/docs/ceshi.xlsx
+++ b/docs/ceshi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.github\Javastudyer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E483B217-F4D4-4882-90D8-95ED8A3BDA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24DFF0-F45A-4F3F-9DF4-EF323DBD5CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="219">
   <si>
     <t>:wrench:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,27 +716,12 @@
     <t>数据结构与算法知识点</t>
   </si>
   <si>
-    <t>数据结构完成度</t>
-  </si>
-  <si>
-    <t>CSDN博客</t>
-  </si>
-  <si>
-    <t>程序上传</t>
-  </si>
-  <si>
     <t>数据类型、基础语法、反射</t>
   </si>
   <si>
     <t>排序算法</t>
   </si>
   <si>
-    <t>:pencil2:</t>
-  </si>
-  <si>
-    <t>:wrench:</t>
-  </si>
-  <si>
     <t>关键字、集合/数组、源码分析</t>
   </si>
   <si>
@@ -758,177 +743,90 @@
     <t>29-31</t>
   </si>
   <si>
-    <t>JUC、并发\-1</t>
-  </si>
-  <si>
     <t>32-34</t>
   </si>
   <si>
-    <t>并发\-2</t>
-  </si>
-  <si>
     <t>35-37</t>
   </si>
   <si>
-    <t>JVM\-1</t>
-  </si>
-  <si>
     <t>38-40</t>
   </si>
   <si>
-    <t>JVM\-2</t>
-  </si>
-  <si>
     <t>41-43</t>
   </si>
   <si>
-    <t>TCP\-1</t>
-  </si>
-  <si>
     <t>44-46</t>
   </si>
   <si>
-    <t>TCP\-2</t>
-  </si>
-  <si>
     <t>47-49</t>
   </si>
   <si>
-    <t>TCP\-3</t>
-  </si>
-  <si>
     <t>50-52</t>
   </si>
   <si>
-    <t>数据库MySQL\-1</t>
-  </si>
-  <si>
     <t>53-55</t>
   </si>
   <si>
-    <t>数据库MySQL\-2</t>
-  </si>
-  <si>
     <t>56-58</t>
   </si>
   <si>
-    <t>数据库MySQL\-3</t>
-  </si>
-  <si>
     <t>59-61</t>
   </si>
   <si>
-    <t>数据库MySQL\-4</t>
-  </si>
-  <si>
     <t>62-64</t>
   </si>
   <si>
-    <t>redis\-1</t>
-  </si>
-  <si>
     <t>65-67</t>
   </si>
   <si>
-    <t>redis\-2</t>
-  </si>
-  <si>
     <t>68-70</t>
   </si>
   <si>
-    <t>JDBC\-1</t>
-  </si>
-  <si>
     <t>71-73</t>
   </si>
   <si>
-    <t>JDBC\-2</t>
-  </si>
-  <si>
     <t>74-76</t>
   </si>
   <si>
-    <t>Spring\-1</t>
-  </si>
-  <si>
     <t>77-79</t>
   </si>
   <si>
-    <t>Spring\-2</t>
-  </si>
-  <si>
     <t>80-82</t>
   </si>
   <si>
-    <t>SpringMVC\-1</t>
-  </si>
-  <si>
     <t>83-85</t>
   </si>
   <si>
-    <t>SpringMVC\-2</t>
-  </si>
-  <si>
     <t>86-88</t>
   </si>
   <si>
-    <t>MyBatis\-1</t>
-  </si>
-  <si>
     <t>89-91</t>
   </si>
   <si>
-    <t>MyBatis\-2</t>
-  </si>
-  <si>
     <t>92-94</t>
   </si>
   <si>
-    <t>MyBatis\-3</t>
-  </si>
-  <si>
     <t>95-97</t>
   </si>
   <si>
-    <t>SpringBoot\-1</t>
-  </si>
-  <si>
     <t>98-100</t>
   </si>
   <si>
-    <t>SpringBoot\-2</t>
-  </si>
-  <si>
     <t>101-103</t>
   </si>
   <si>
-    <t>SpringBoot\-3</t>
-  </si>
-  <si>
     <t>104-106</t>
   </si>
   <si>
-    <t>Spring注解\-1</t>
-  </si>
-  <si>
     <t>107-109</t>
   </si>
   <si>
-    <t>Spring注解\-2</t>
-  </si>
-  <si>
     <t>110-112</t>
   </si>
   <si>
-    <t>项目二众筹\+maven</t>
-  </si>
-  <si>
     <t>113-115</t>
   </si>
   <si>
-    <t>项目二众筹\+ngnix</t>
-  </si>
-  <si>
     <t>116-118</t>
   </si>
   <si>
@@ -945,13 +843,104 @@
   </si>
   <si>
     <t>131-132</t>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUC、并发-1</t>
+  </si>
+  <si>
+    <t>并发-2</t>
+  </si>
+  <si>
+    <t>JVM-1</t>
+  </si>
+  <si>
+    <t>JVM-2</t>
+  </si>
+  <si>
+    <t>TCP-1</t>
+  </si>
+  <si>
+    <t>TCP-2</t>
+  </si>
+  <si>
+    <t>TCP-3</t>
+  </si>
+  <si>
+    <t>数据库MySQL-1</t>
+  </si>
+  <si>
+    <t>数据库MySQL-2</t>
+  </si>
+  <si>
+    <t>数据库MySQL-3</t>
+  </si>
+  <si>
+    <t>数据库MySQL-4</t>
+  </si>
+  <si>
+    <t>redis-1</t>
+  </si>
+  <si>
+    <t>redis-2</t>
+  </si>
+  <si>
+    <t>JDBC-1</t>
+  </si>
+  <si>
+    <t>JDBC-2</t>
+  </si>
+  <si>
+    <t>Spring-1</t>
+  </si>
+  <si>
+    <t>Spring-2</t>
+  </si>
+  <si>
+    <t>SpringMVC-1</t>
+  </si>
+  <si>
+    <t>SpringMVC-2</t>
+  </si>
+  <si>
+    <t>MyBatis-1</t>
+  </si>
+  <si>
+    <t>MyBatis-2</t>
+  </si>
+  <si>
+    <t>MyBatis-3</t>
+  </si>
+  <si>
+    <t>SpringBoot-1</t>
+  </si>
+  <si>
+    <t>SpringBoot-2</t>
+  </si>
+  <si>
+    <t>SpringBoot-3</t>
+  </si>
+  <si>
+    <t>Spring注解-1</t>
+  </si>
+  <si>
+    <t>Spring注解-2</t>
+  </si>
+  <si>
+    <t>项目二众筹+maven</t>
+  </si>
+  <si>
+    <t>项目二众筹+ngnix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +976,12 @@
       <color rgb="FF303030"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1027,11 +1022,11 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117F014-3980-4D9B-B644-5A790D3BF703}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1358,78 +1353,51 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.21875" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="4" max="5" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
       <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43932</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43933</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="4">
         <v>43836</v>
       </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43934</v>
       </c>
@@ -1437,23 +1405,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="4">
         <v>44021</v>
       </c>
-      <c r="F4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43935</v>
       </c>
@@ -1461,23 +1419,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="4">
         <v>44116</v>
       </c>
-      <c r="F5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43936</v>
       </c>
@@ -1486,22 +1434,11 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43937</v>
       </c>
@@ -1510,22 +1447,11 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43938</v>
       </c>
@@ -1534,22 +1460,10 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43939</v>
       </c>
@@ -1560,20 +1474,8 @@
       <c r="D9" t="s">
         <v>152</v>
       </c>
-      <c r="E9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43940</v>
       </c>
@@ -1582,22 +1484,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43941</v>
       </c>
@@ -1606,768 +1496,408 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43942</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43943</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43944</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43945</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43946</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43947</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43948</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43949</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43950</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43951</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43952</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43953</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43954</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43955</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43956</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43957</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43958</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43959</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43960</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43961</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43962</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43963</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43964</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43965</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43966</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43967</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43968</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43969</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43970</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>217</v>
-      </c>
-      <c r="F40" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43971</v>
       </c>
-      <c r="E41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43972</v>
       </c>
-      <c r="E42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43973</v>
       </c>
-      <c r="E43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43974</v>
       </c>
-      <c r="E44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43975</v>
       </c>
-      <c r="E45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43977</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43978</v>
       </c>
@@ -2396,9 +1926,6 @@
       <c r="A53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/ceshi.xlsx
+++ b/docs/ceshi.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.github\Javastudyer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24DFF0-F45A-4F3F-9DF4-EF323DBD5CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D625F-CE6D-4D1F-B821-893E69409299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="知识进度" sheetId="1" r:id="rId1"/>
+    <sheet name="刷题进度" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117F014-3980-4D9B-B644-5A790D3BF703}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E52"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1936,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63D034E-4613-4DE3-8D35-5AD51BEE368B}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C133" sqref="A1:C133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
